--- a/xlsx/a69_f06UPPachuca.xlsx
+++ b/xlsx/a69_f06UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3ER Trimestre de las 48 Fracciones Comunes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\EVALUACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="230">
   <si>
     <t>44218</t>
   </si>
@@ -735,8 +735,33 @@
     <t>Informes trimestrales de rendición de cuenta pública generado en la Subdirección de Planeación y  Presupuesto adscrita a la Dirección de Planeación de la Universidad Politécnica de Pachuca y ubicado en: http://www.upp.edu.mx/leygralcontabilidad/#cuentapublica</t>
   </si>
   <si>
-    <t xml:space="preserve">El avance de metas corresponde al primer y segundo trimestre del ejercicio 2020. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2020
-</t>
+    <t>Adquisición de paquetes de útiles escoalres parta estudiantes de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>El avance de metas corresponde al primer, segundo y tercer trimestre del ejercicio 2020 correspondiente a la Matriz 992-21-04 Educación Superior. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2020</t>
+  </si>
+  <si>
+    <t>Indicador que fue autorizado por la UTED en tercer trimestre del ejercio 2020 y que forma parte de la Matriz  1021-21-01 Fortalecimeinto  a la educación en entrega de útiles y uniformes. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2020</t>
+  </si>
+  <si>
+    <t>Expediente anual de paquetes de útiles escolares adquiridos, generado y ubicado por el área de recursos materiales de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Porcentaje de paquetes de útiles escolares adquiridos</t>
+  </si>
+  <si>
+    <t>A mayor  proporción de paquetes de útiles escolares adquiridos para entregarlos a estudiantes de la Universidad Politécnica de Pachuca mayor fortalecimiento en  la atención educativa y apoyar el proceso de enseñanza - aprendizaje.</t>
+  </si>
+  <si>
+    <t>Mide la proporción de paquetes de útiles escolares adquiridos para entregarlos a estudiantes de la Universidad Politécnica de Pachuca, con la finalidad de fortalecer la atención educativa y apoyar el proceso de enseñanza - aprendizaje.</t>
+  </si>
+  <si>
+    <t>PPUEA=(TPUEA/TPUEE)*100
+TPUEA= total de paquetes de útiles escolares adquiridos
+TPUEE= total de paquetes de útiles escolares estimados</t>
+  </si>
+  <si>
+    <t>Paquete</t>
   </si>
 </sst>
 </file>
@@ -781,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -793,19 +818,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -830,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -841,13 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -859,24 +865,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD177"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,10 +1187,10 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
@@ -1187,7 +1203,7 @@
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" customWidth="1"/>
+    <col min="21" max="21" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -1389,1517 +1405,1580 @@
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="3" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>744</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>1830</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="6">
-        <v>735</v>
+      <c r="O8" s="7">
+        <v>804</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="3" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T8" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
-      <c r="B9" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>5</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>5</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="6">
-        <v>0</v>
+      <c r="O9" s="7">
+        <v>10</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T9" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T9" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="8" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2020</v>
       </c>
-      <c r="B10" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>2465</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <v>2530</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="6">
-        <v>185</v>
+      <c r="O10" s="7">
+        <v>1833</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S10" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T10" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="S10" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T10" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2020</v>
       </c>
-      <c r="B11" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>5765</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>105</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="6">
-        <v>112.93</v>
+      <c r="O11" s="7">
+        <v>102.89</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T11" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S11" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T11" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
-      <c r="B12" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>4978</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <v>5412</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="6">
+      <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T12" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S12" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T12" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2020</v>
       </c>
-      <c r="B13" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>154</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <v>45</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="6">
-        <v>0</v>
+      <c r="O13" s="7">
+        <v>30</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T13" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S13" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T13" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2020</v>
       </c>
-      <c r="B14" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C14" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>861</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <v>701</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="6">
+      <c r="O14" s="7">
         <v>101</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S14" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T14" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S14" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T14" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2020</v>
       </c>
-      <c r="B15" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C15" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>2</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <v>2</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="6">
+      <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T15" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S15" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T15" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2020</v>
       </c>
-      <c r="B16" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>4978</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>5150</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="6">
+      <c r="O16" s="7">
         <v>0</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T16" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+      <c r="S16" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T16" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2020</v>
       </c>
-      <c r="B17" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>1343</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>1076</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="6">
-        <v>501</v>
+      <c r="O17" s="7">
+        <v>657</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="S17" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T17" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S17" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T17" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="9" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2020</v>
       </c>
-      <c r="B18" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C18" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>1373</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>720</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="6">
-        <v>225</v>
+      <c r="O18" s="7">
+        <v>305</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="S18" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T18" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S18" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T18" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2020</v>
       </c>
-      <c r="B19" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C19" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>21475</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <v>7000</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="6">
+      <c r="O19" s="7">
         <v>3170</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="S19" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T19" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S19" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T19" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2020</v>
       </c>
-      <c r="B20" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C20" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>55</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="5">
         <v>50</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="6">
-        <v>18</v>
+      <c r="O20" s="7">
+        <v>30</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="S20" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T20" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S20" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T20" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
-      <c r="B21" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C21" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>24</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="5">
         <v>20</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="6">
-        <v>7</v>
+      <c r="O21" s="7">
+        <v>18</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="S21" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T21" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S21" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T21" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2020</v>
       </c>
-      <c r="B22" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C22" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>1</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <v>1</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="6">
+      <c r="O22" s="7">
         <v>0</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="S22" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T22" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S22" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T22" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2020</v>
       </c>
-      <c r="B23" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C23" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>7</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="5">
         <v>7</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="6">
-        <v>1</v>
+      <c r="O23" s="7">
+        <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="S23" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T23" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S23" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T23" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="9" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2020</v>
       </c>
-      <c r="B24" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C24" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>4</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <v>4</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="6">
-        <v>2</v>
+      <c r="O24" s="7">
+        <v>3</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="S24" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T24" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S24" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T24" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2020</v>
       </c>
-      <c r="B25" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C25" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>63</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="5">
         <v>60</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="6">
-        <v>20</v>
+      <c r="O25" s="7">
+        <v>40</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="S25" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T25" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="S25" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T25" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
-      <c r="B26" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C26" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>193</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <v>210</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="6">
-        <v>43</v>
+      <c r="O26" s="7">
+        <v>179</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S26" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T26" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S26" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T26" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="9" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2020</v>
       </c>
-      <c r="B27" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C27" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>4</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <v>2</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="6">
+      <c r="O27" s="7">
         <v>1</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S27" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T27" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S27" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T27" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="9" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2020</v>
       </c>
-      <c r="B28" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C28" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="5">
         <v>2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="5">
         <v>8</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="6">
+      <c r="O28" s="7">
         <v>5</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S28" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T28" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S28" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T28" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
-      <c r="B29" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C29" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="5">
         <v>312</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="5">
         <v>288</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2">
-        <v>144</v>
+      <c r="O29" s="7">
+        <v>216</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="R29" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S29" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T29" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="S29" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T29" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
-      <c r="B30" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C30" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="5">
         <v>6</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="5">
         <v>6</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2">
-        <v>4</v>
+      <c r="O30" s="7">
+        <v>5</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R30" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S30" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T30" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U30" s="10" t="s">
+      <c r="S30" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T30" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="180" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44196</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>221</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4978</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" s="4">
+        <v>44206</v>
+      </c>
+      <c r="T31" s="4">
+        <v>44206</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2992,7 @@
     <mergeCell ref="G3:K3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P8:P54">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P8:P31">
       <formula1>Hidden_115</formula1>
     </dataValidation>
   </dataValidations>
@@ -2926,17 +3005,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
     </row>

--- a/xlsx/a69_f06UPPachuca.xlsx
+++ b/xlsx/a69_f06UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="245">
   <si>
     <t>44218</t>
   </si>
@@ -817,10 +817,13 @@
 TEM= Total de estudiantes matriculados</t>
   </si>
   <si>
-    <t>El avance de metas correspondiente a la Matriz 1235-21-04 Educación Superior del ejercicio 2021 el 2do trimestre 2021. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2021</t>
-  </si>
-  <si>
-    <t>El avance de metas correspondiente forma parte de la Matriz  1226-21-01 Fortalecimiento  a la educación en entrega de útiles y uniformes del ejercicio 2021 es del 2do trimestre 2021. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2021</t>
+    <t>El avance de metas correspondiente a la Matriz 1235-21-04 Educación Superior del ejercicio 2021 el 3er trimestre 2021. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2021</t>
+  </si>
+  <si>
+    <t>El avance de metas correspondiente a la Matriz 1235-21-04 Educación Superior del ejercicio 2021 el 3er  trimestre 2021. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2021</t>
+  </si>
+  <si>
+    <t>El avance de metas correspondiente forma parte de la Matriz  1226-21-01 Fortalecimiento  a la educación en entrega de útiles y uniformes del ejercicio 2021 es del 3er trimestre 2021. Respecto a las metas ajustadas se reportan al cierre del ejercicio 2021</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="Q36" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,10 +1509,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>207</v>
@@ -1555,10 +1558,10 @@
         <v>58</v>
       </c>
       <c r="S8" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T8" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U8" s="8" t="s">
         <v>242</v>
@@ -1569,10 +1572,10 @@
         <v>2021</v>
       </c>
       <c r="B9" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C9" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>59</v>
@@ -1606,7 +1609,7 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4">
-        <v>1101</v>
+        <v>1579</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>56</v>
@@ -1618,10 +1621,10 @@
         <v>58</v>
       </c>
       <c r="S9" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T9" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U9" s="8" t="s">
         <v>242</v>
@@ -1632,10 +1635,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C10" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>172</v>
@@ -1681,10 +1684,10 @@
         <v>58</v>
       </c>
       <c r="S10" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T10" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>242</v>
@@ -1695,10 +1698,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C11" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>169</v>
@@ -1732,7 +1735,7 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4">
-        <v>300</v>
+        <v>2163</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>56</v>
@@ -1744,10 +1747,10 @@
         <v>58</v>
       </c>
       <c r="S11" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T11" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U11" s="8" t="s">
         <v>242</v>
@@ -1758,10 +1761,10 @@
         <v>2021</v>
       </c>
       <c r="B12" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C12" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>165</v>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>56</v>
@@ -1807,10 +1810,10 @@
         <v>58</v>
       </c>
       <c r="S12" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T12" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U12" s="8" t="s">
         <v>242</v>
@@ -1821,10 +1824,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C13" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>68</v>
@@ -1870,10 +1873,10 @@
         <v>58</v>
       </c>
       <c r="S13" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T13" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U13" s="8" t="s">
         <v>242</v>
@@ -1884,10 +1887,10 @@
         <v>2021</v>
       </c>
       <c r="B14" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C14" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>71</v>
@@ -1933,10 +1936,10 @@
         <v>58</v>
       </c>
       <c r="S14" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T14" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U14" s="8" t="s">
         <v>242</v>
@@ -1947,10 +1950,10 @@
         <v>2021</v>
       </c>
       <c r="B15" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C15" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>166</v>
@@ -1996,10 +1999,10 @@
         <v>58</v>
       </c>
       <c r="S15" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T15" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U15" s="8" t="s">
         <v>242</v>
@@ -2010,10 +2013,10 @@
         <v>2021</v>
       </c>
       <c r="B16" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C16" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>168</v>
@@ -2059,10 +2062,10 @@
         <v>58</v>
       </c>
       <c r="S16" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T16" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U16" s="8" t="s">
         <v>242</v>
@@ -2073,10 +2076,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C17" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>212</v>
@@ -2110,7 +2113,7 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4">
-        <v>2474</v>
+        <v>2663</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>56</v>
@@ -2122,10 +2125,10 @@
         <v>118</v>
       </c>
       <c r="S17" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T17" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U17" s="8" t="s">
         <v>242</v>
@@ -2136,10 +2139,10 @@
         <v>2021</v>
       </c>
       <c r="B18" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C18" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>77</v>
@@ -2173,7 +2176,7 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>56</v>
@@ -2185,10 +2188,10 @@
         <v>118</v>
       </c>
       <c r="S18" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T18" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U18" s="8" t="s">
         <v>242</v>
@@ -2199,10 +2202,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C19" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>79</v>
@@ -2236,7 +2239,7 @@
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>56</v>
@@ -2248,10 +2251,10 @@
         <v>118</v>
       </c>
       <c r="S19" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T19" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>242</v>
@@ -2262,10 +2265,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C20" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>83</v>
@@ -2299,7 +2302,7 @@
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4">
-        <v>2345</v>
+        <v>2495</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>56</v>
@@ -2311,10 +2314,10 @@
         <v>118</v>
       </c>
       <c r="S20" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T20" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U20" s="8" t="s">
         <v>242</v>
@@ -2325,10 +2328,10 @@
         <v>2021</v>
       </c>
       <c r="B21" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C21" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>85</v>
@@ -2362,7 +2365,7 @@
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>56</v>
@@ -2374,10 +2377,10 @@
         <v>118</v>
       </c>
       <c r="S21" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T21" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U21" s="8" t="s">
         <v>242</v>
@@ -2388,10 +2391,10 @@
         <v>2021</v>
       </c>
       <c r="B22" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C22" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>217</v>
@@ -2437,13 +2440,13 @@
         <v>119</v>
       </c>
       <c r="S22" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T22" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2451,10 +2454,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C23" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>201</v>
@@ -2488,7 +2491,7 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>56</v>
@@ -2500,10 +2503,10 @@
         <v>119</v>
       </c>
       <c r="S23" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T23" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U23" s="8" t="s">
         <v>242</v>
@@ -2514,10 +2517,10 @@
         <v>2021</v>
       </c>
       <c r="B24" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C24" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>93</v>
@@ -2563,10 +2566,10 @@
         <v>119</v>
       </c>
       <c r="S24" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T24" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U24" s="8" t="s">
         <v>242</v>
@@ -2577,10 +2580,10 @@
         <v>2021</v>
       </c>
       <c r="B25" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C25" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>222</v>
@@ -2614,7 +2617,7 @@
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>56</v>
@@ -2626,10 +2629,10 @@
         <v>120</v>
       </c>
       <c r="S25" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T25" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U25" s="8" t="s">
         <v>242</v>
@@ -2640,10 +2643,10 @@
         <v>2021</v>
       </c>
       <c r="B26" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C26" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>95</v>
@@ -2677,7 +2680,7 @@
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>56</v>
@@ -2689,10 +2692,10 @@
         <v>120</v>
       </c>
       <c r="S26" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T26" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U26" s="8" t="s">
         <v>242</v>
@@ -2703,10 +2706,10 @@
         <v>2021</v>
       </c>
       <c r="B27" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C27" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>99</v>
@@ -2740,7 +2743,7 @@
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>56</v>
@@ -2752,10 +2755,10 @@
         <v>120</v>
       </c>
       <c r="S27" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T27" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U27" s="8" t="s">
         <v>242</v>
@@ -2766,10 +2769,10 @@
         <v>2021</v>
       </c>
       <c r="B28" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C28" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>144</v>
@@ -2803,7 +2806,7 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>56</v>
@@ -2815,10 +2818,10 @@
         <v>120</v>
       </c>
       <c r="S28" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T28" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U28" s="8" t="s">
         <v>242</v>
@@ -2829,10 +2832,10 @@
         <v>2021</v>
       </c>
       <c r="B29" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C29" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>227</v>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>56</v>
@@ -2878,10 +2881,10 @@
         <v>121</v>
       </c>
       <c r="S29" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T29" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U29" s="8" t="s">
         <v>242</v>
@@ -2892,10 +2895,10 @@
         <v>2021</v>
       </c>
       <c r="B30" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C30" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>104</v>
@@ -2929,7 +2932,7 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>56</v>
@@ -2941,10 +2944,10 @@
         <v>121</v>
       </c>
       <c r="S30" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T30" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U30" s="8" t="s">
         <v>242</v>
@@ -2955,10 +2958,10 @@
         <v>2021</v>
       </c>
       <c r="B31" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C31" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>135</v>
@@ -2992,7 +2995,7 @@
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>56</v>
@@ -3004,10 +3007,10 @@
         <v>121</v>
       </c>
       <c r="S31" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T31" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U31" s="8" t="s">
         <v>242</v>
@@ -3018,10 +3021,10 @@
         <v>2021</v>
       </c>
       <c r="B32" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C32" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>132</v>
@@ -3055,7 +3058,7 @@
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>56</v>
@@ -3067,10 +3070,10 @@
         <v>121</v>
       </c>
       <c r="S32" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T32" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U32" s="8" t="s">
         <v>242</v>
@@ -3081,10 +3084,10 @@
         <v>2021</v>
       </c>
       <c r="B33" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C33" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>128</v>
@@ -3130,10 +3133,10 @@
         <v>121</v>
       </c>
       <c r="S33" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T33" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U33" s="8" t="s">
         <v>242</v>
@@ -3144,10 +3147,10 @@
         <v>2021</v>
       </c>
       <c r="B34" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C34" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>111</v>
@@ -3181,7 +3184,7 @@
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>56</v>
@@ -3193,10 +3196,10 @@
         <v>121</v>
       </c>
       <c r="S34" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T34" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U34" s="8" t="s">
         <v>242</v>
@@ -3207,13 +3210,13 @@
         <v>2021</v>
       </c>
       <c r="B35" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C35" s="5">
-        <v>44469</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>237</v>
+        <v>44561</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>122</v>
@@ -3256,13 +3259,13 @@
         <v>58</v>
       </c>
       <c r="S35" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T35" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -3270,10 +3273,10 @@
         <v>2021</v>
       </c>
       <c r="B36" s="5">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C36" s="5">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>237</v>
@@ -3319,13 +3322,13 @@
         <v>58</v>
       </c>
       <c r="S36" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T36" s="5">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f06UPPachuca.xlsx
+++ b/xlsx/a69_f06UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -291,9 +291,6 @@
     <t>Eficacia</t>
   </si>
   <si>
-    <t>Mide el número de estudiantes que son formados con Educación Superior de calidad y pertinencia en la Universidad Politécncia de Pachuca, con la finalidad de incrementar el número de personas competentes en el sector laboral</t>
-  </si>
-  <si>
     <t>PTDES =(TEF/TEDES)*100
 TEF= Total de estudiantes formados .
 TEDES= Total de estudiantes que demandan la Educación Superior.</t>
@@ -815,7 +812,10 @@
     <t>Estadística 911 ciclo escolar vigente</t>
   </si>
   <si>
-    <t>Los criterios que se encuentran vacíos es derivado de que en el periodo reportado no se cuenta con metas ajustadas.</t>
+    <t>Mide el número de estudiantes que son formados con Educación Superior de calidad y pertinencia en la Universidad Politécnica de Pachuca, con la finalidad de incrementar el número de personas competentes en el sector laboral</t>
+  </si>
+  <si>
+    <t>Las metas ajustadas no fueron requeridas para este periodo. Las Metas alcanzadas son del periodo enero-marzo 2022.</t>
   </si>
 </sst>
 </file>
@@ -924,11 +924,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,14 +936,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,7 +1217,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,23 +1237,23 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="46.28515625" customWidth="1"/>
+    <col min="21" max="21" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1291,13 +1291,13 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1519,15 +1519,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>59</v>
@@ -1542,1827 +1542,1805 @@
         <v>89</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="L8" s="11">
         <v>0.96330000000000005</v>
       </c>
       <c r="M8" s="3">
         <v>5038</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="17">
+      <c r="O8" s="12">
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S8" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U8" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="J9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="17">
+      <c r="L9" s="12">
         <v>0.9</v>
       </c>
       <c r="M9" s="3">
         <v>1790</v>
       </c>
-      <c r="N9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O9" s="17">
-        <v>0</v>
+      <c r="N9" s="3"/>
+      <c r="O9" s="12">
+        <v>0.33</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S9" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T9" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U9" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U9" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2022</v>
       </c>
       <c r="B10" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="17">
+      <c r="L10" s="12">
         <v>1</v>
       </c>
       <c r="M10" s="3">
         <v>2</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="17">
+      <c r="O10" s="12">
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S10" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T10" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U10" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U10" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2022</v>
       </c>
       <c r="B11" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="K11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="16">
+        <v>102</v>
+      </c>
+      <c r="L11" s="11">
         <v>1.2546999999999999</v>
       </c>
       <c r="M11" s="3">
         <v>3135</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="17">
+      <c r="O11" s="12">
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S11" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T11" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U11" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U11" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
       <c r="B12" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C12" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="17">
+        <v>102</v>
+      </c>
+      <c r="L12" s="12">
         <v>1</v>
       </c>
       <c r="M12" s="3">
         <v>4030</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="17">
+      <c r="O12" s="12">
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S12" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T12" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U12" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U12" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2022</v>
       </c>
       <c r="B13" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" s="16">
+        <v>102</v>
+      </c>
+      <c r="L13" s="11">
         <v>0.96330000000000005</v>
       </c>
       <c r="M13" s="3">
         <v>5038</v>
       </c>
-      <c r="N13" s="3">
-        <v>5038</v>
-      </c>
-      <c r="O13" s="17">
+      <c r="N13" s="3"/>
+      <c r="O13" s="12">
         <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S13" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T13" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U13" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U13" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2022</v>
       </c>
       <c r="B14" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="K14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="17">
+        <v>102</v>
+      </c>
+      <c r="L14" s="12">
         <v>1</v>
       </c>
       <c r="M14" s="3">
         <v>91</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="17">
+      <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S14" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T14" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U14" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U14" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2022</v>
       </c>
       <c r="B15" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C15" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="J15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="16">
+        <v>102</v>
+      </c>
+      <c r="L15" s="11">
         <v>0.31490000000000001</v>
       </c>
       <c r="M15" s="3">
         <v>493</v>
       </c>
-      <c r="N15" s="3">
-        <v>607</v>
-      </c>
-      <c r="O15" s="17">
+      <c r="N15" s="3"/>
+      <c r="O15" s="12">
         <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S15" s="4">
-        <v>44659</v>
-      </c>
-      <c r="T15" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U15" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2022</v>
       </c>
       <c r="B16" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C16" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="K16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="16">
+        <v>102</v>
+      </c>
+      <c r="L16" s="11">
         <v>0.33329999999999999</v>
       </c>
       <c r="M16" s="3">
         <v>3</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="17">
+      <c r="O16" s="12">
         <v>0</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="S16" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T16" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U16" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U16" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2022</v>
       </c>
       <c r="B17" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C17" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="K17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="16">
+        <v>102</v>
+      </c>
+      <c r="L17" s="11">
         <v>0.99550000000000005</v>
       </c>
       <c r="M17" s="3">
         <v>3420</v>
       </c>
-      <c r="N17" s="3">
-        <v>3450</v>
-      </c>
-      <c r="O17" s="17">
-        <v>0</v>
+      <c r="N17" s="3"/>
+      <c r="O17" s="12">
+        <v>0.21</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="S17" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T17" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U17" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U17" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2022</v>
       </c>
       <c r="B18" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="K18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="16">
+        <v>102</v>
+      </c>
+      <c r="L18" s="11">
         <v>0.84760000000000002</v>
       </c>
       <c r="M18" s="3">
         <v>470</v>
       </c>
-      <c r="N18" s="3">
-        <v>500</v>
-      </c>
-      <c r="O18" s="17">
-        <v>0</v>
+      <c r="N18" s="3"/>
+      <c r="O18" s="12">
+        <v>0.13</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S18" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T18" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U18" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U18" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2022</v>
       </c>
       <c r="B19" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C19" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="K19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="17">
+        <v>102</v>
+      </c>
+      <c r="L19" s="12">
         <v>1</v>
       </c>
       <c r="M19" s="3">
         <v>360</v>
       </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="17">
-        <v>0</v>
+      <c r="O19" s="12">
+        <v>0.25</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S19" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T19" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U19" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U19" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2022</v>
       </c>
       <c r="B20" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="K20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="16">
+        <v>102</v>
+      </c>
+      <c r="L20" s="11">
         <v>1.0210999999999999</v>
       </c>
       <c r="M20" s="3">
         <v>3950</v>
       </c>
-      <c r="N20" s="3">
-        <v>2950</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0</v>
+      <c r="N20" s="3"/>
+      <c r="O20" s="12">
+        <v>0.22</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S20" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T20" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U20" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U20" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2022</v>
       </c>
       <c r="B21" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C21" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="K21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="16">
+        <v>102</v>
+      </c>
+      <c r="L21" s="11">
         <v>1.1200000000000001</v>
       </c>
       <c r="M21" s="3">
         <v>50</v>
       </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="17">
-        <v>0</v>
+      <c r="O21" s="12">
+        <v>0.28000000000000003</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S21" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T21" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U21" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U21" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2022</v>
       </c>
       <c r="B22" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C22" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="K22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="17">
+        <v>102</v>
+      </c>
+      <c r="L22" s="12">
         <v>1</v>
       </c>
       <c r="M22" s="3">
         <v>3</v>
       </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="17">
+      <c r="O22" s="12">
         <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q22" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="S22" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T22" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U22" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U22" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2022</v>
       </c>
       <c r="B23" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C23" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="K23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="17">
+        <v>102</v>
+      </c>
+      <c r="L23" s="12">
         <v>1</v>
       </c>
       <c r="M23" s="3">
         <v>18</v>
       </c>
-      <c r="N23" s="3">
-        <v>17</v>
-      </c>
-      <c r="O23" s="17">
-        <v>0</v>
+      <c r="N23" s="3"/>
+      <c r="O23" s="12">
+        <v>0.11</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S23" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T23" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U23" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U23" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2022</v>
       </c>
       <c r="B24" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C24" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="J24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="17">
+        <v>102</v>
+      </c>
+      <c r="L24" s="12">
         <v>1</v>
       </c>
       <c r="M24" s="3">
         <v>1</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="17">
+      <c r="O24" s="12">
         <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S24" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T24" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U24" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U24" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2022</v>
       </c>
       <c r="B25" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C25" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="K25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" s="17">
+        <v>102</v>
+      </c>
+      <c r="L25" s="12">
         <v>1</v>
       </c>
       <c r="M25" s="3">
         <v>8</v>
       </c>
       <c r="N25" s="3"/>
-      <c r="O25" s="17">
-        <v>0</v>
+      <c r="O25" s="12">
+        <v>0.25</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q25" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="R25" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="S25" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T25" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U25" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U25" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2022</v>
       </c>
       <c r="B26" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C26" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="K26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="17">
+        <v>102</v>
+      </c>
+      <c r="L26" s="12">
         <v>0.8</v>
       </c>
       <c r="M26" s="3">
         <v>7</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="O26" s="17">
-        <v>0</v>
+      <c r="O26" s="12">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S26" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T26" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U26" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U26" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2022</v>
       </c>
       <c r="B27" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C27" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="J27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="17">
+        <v>102</v>
+      </c>
+      <c r="L27" s="12">
         <v>1</v>
       </c>
       <c r="M27" s="3">
         <v>4</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="17">
-        <v>0</v>
+      <c r="O27" s="12">
+        <v>0.25</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S27" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T27" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U27" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U27" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2022</v>
       </c>
       <c r="B28" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C28" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="K28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="17">
+        <v>102</v>
+      </c>
+      <c r="L28" s="12">
         <v>1</v>
       </c>
       <c r="M28" s="3">
         <v>60</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="17">
+      <c r="O28" s="12">
         <v>0</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S28" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T28" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U28" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U28" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2022</v>
       </c>
       <c r="B29" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C29" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="K29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="17">
+        <v>102</v>
+      </c>
+      <c r="L29" s="12">
         <v>1</v>
       </c>
       <c r="M29" s="3">
         <v>4</v>
       </c>
       <c r="N29" s="3"/>
-      <c r="O29" s="17">
-        <v>0</v>
+      <c r="O29" s="12">
+        <v>0.25</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q29" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="R29" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="S29" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T29" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U29" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U29" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2022</v>
       </c>
       <c r="B30" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C30" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H30" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="K30" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="16">
+        <v>102</v>
+      </c>
+      <c r="L30" s="11">
         <v>0.78080000000000005</v>
       </c>
       <c r="M30" s="3">
         <v>26</v>
       </c>
       <c r="N30" s="3"/>
-      <c r="O30" s="17">
+      <c r="O30" s="12">
         <v>0</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S30" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T30" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U30" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U30" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2022</v>
       </c>
       <c r="B31" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C31" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H31" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="K31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="17">
+        <v>102</v>
+      </c>
+      <c r="L31" s="12">
         <v>1</v>
       </c>
       <c r="M31" s="3">
         <v>4</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="17">
-        <v>0</v>
+      <c r="O31" s="12">
+        <v>0.25</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S31" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T31" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U31" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U31" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2022</v>
       </c>
       <c r="B32" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C32" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="K32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L32" s="17">
+        <v>102</v>
+      </c>
+      <c r="L32" s="12">
         <v>1</v>
       </c>
       <c r="M32" s="3">
         <v>228</v>
       </c>
       <c r="N32" s="3"/>
-      <c r="O32" s="17">
-        <v>0</v>
+      <c r="O32" s="12">
+        <v>0.25</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S32" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T32" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U32" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U32" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2022</v>
       </c>
       <c r="B33" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C33" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="K33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="12">
         <v>1</v>
       </c>
       <c r="M33" s="3">
         <v>7</v>
       </c>
-      <c r="N33" s="3">
-        <v>6</v>
-      </c>
-      <c r="O33" s="17">
+      <c r="N33" s="3"/>
+      <c r="O33" s="12">
         <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S33" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T33" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U33" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U33" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2022</v>
       </c>
       <c r="B34" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C34" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="K34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="12">
         <v>1</v>
       </c>
       <c r="M34" s="3">
         <v>6</v>
       </c>
       <c r="N34" s="3"/>
-      <c r="O34" s="17">
-        <v>0</v>
+      <c r="O34" s="12">
+        <v>0.17</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S34" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T34" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U34" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U34" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2022</v>
       </c>
       <c r="B35" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C35" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="J35" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L35" s="16">
+        <v>102</v>
+      </c>
+      <c r="L35" s="11">
         <v>0.9355</v>
       </c>
       <c r="M35" s="3">
         <v>9900</v>
       </c>
-      <c r="N35" s="3">
-        <v>5038</v>
-      </c>
-      <c r="O35" s="17">
+      <c r="N35" s="3"/>
+      <c r="O35" s="12">
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S35" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T35" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U35" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U35" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2022</v>
       </c>
       <c r="B36" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C36" s="4">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="K36" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L36" s="16">
+        <v>102</v>
+      </c>
+      <c r="L36" s="11">
         <v>0.9355</v>
       </c>
       <c r="M36" s="3">
         <v>4950</v>
       </c>
-      <c r="N36" s="3">
-        <v>5038</v>
-      </c>
-      <c r="O36" s="17">
-        <v>0</v>
+      <c r="N36" s="3"/>
+      <c r="O36" s="12">
+        <v>1</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S36" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T36" s="4">
-        <v>44659</v>
-      </c>
-      <c r="U36" s="15" t="s">
+        <v>44753</v>
+      </c>
+      <c r="U36" s="17" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3377,7 +3355,7 @@
     <mergeCell ref="G2:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P8:P55">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P8:P201">
       <formula1>Hidden_115</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f06UPPachuca.xlsx
+++ b/xlsx/a69_f06UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="Hidden_115">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -194,9 +199,6 @@
     <t>Descendente</t>
   </si>
   <si>
-    <t>Departamento de Evaluación y Estadistica (UPP)</t>
-  </si>
-  <si>
     <t>1. Estudiantes de educación superior en las instituciones públicas formados</t>
   </si>
   <si>
@@ -803,9 +805,12 @@
     <t>Requisición de paquetes de útiles escolares</t>
   </si>
   <si>
+    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Las metas ajustadas no fueron requeridas para este periodo.
-Metas alcanzadas son hasta septiembre 2022. </t>
+Metas alcanzadas a diciembre 2022.</t>
   </si>
 </sst>
 </file>
@@ -866,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -889,50 +894,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -940,17 +930,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,6 +941,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1010,7 +992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,7 +1027,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1256,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,10 +1248,10 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
@@ -1291,38 +1273,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1455,29 +1437,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1544,1828 +1526,1832 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="10">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5038</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="11">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="8">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="M8" s="3">
-        <v>5038</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S8" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T8" s="2">
-        <v>44936</v>
+      <c r="R8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T8" s="3">
+        <v>45026</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="L9" s="11">
         <v>0.9</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="4">
         <v>1790</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="12">
-        <v>0.86201117318435749</v>
-      </c>
-      <c r="P9" s="3" t="s">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T9" s="2">
-        <v>44936</v>
+      <c r="Q9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S9" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T9" s="3">
+        <v>45026</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    <row r="10" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="4">
         <v>2</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="12">
         <v>1</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T10" s="2">
-        <v>44936</v>
+      <c r="Q10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S10" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T10" s="3">
+        <v>45026</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1.2546999999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3135</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="12">
+        <v>1.0868</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1.2546999999999999</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3135</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="12">
-        <v>0.60191387559808618</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S11" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T11" s="2">
-        <v>44936</v>
+      <c r="R11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S11" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T11" s="3">
+        <v>45026</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>80</v>
+      <c r="J12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L12" s="11">
         <v>1</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <v>4030</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="12">
-        <v>0.68486352357320102</v>
-      </c>
-      <c r="P12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T12" s="2">
-        <v>44936</v>
+      <c r="Q12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S12" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T12" s="3">
+        <v>45026</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="1:21" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5038</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="12">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="M13" s="3">
-        <v>5038</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T13" s="2">
-        <v>44936</v>
+      <c r="R13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S13" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T13" s="3">
+        <v>45026</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>80</v>
+      <c r="K14" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <v>91</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="12">
-        <v>0.87912087912087911</v>
-      </c>
-      <c r="P14" s="3" t="s">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T14" s="2">
-        <v>44936</v>
+      <c r="Q14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S14" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T14" s="3">
+        <v>45026</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="M15" s="4">
+        <v>493</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="12">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.31490000000000001</v>
-      </c>
-      <c r="M15" s="3">
-        <v>493</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="12">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T15" s="2">
-        <v>44936</v>
+      <c r="R15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S15" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T15" s="3">
+        <v>45026</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>3</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="M16" s="3">
-        <v>3</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="12">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S16" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T16" s="2">
-        <v>44936</v>
+      <c r="R16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S16" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T16" s="3">
+        <v>45026</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="210" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3420</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="12">
+        <v>0.95989999999999998</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.99550000000000005</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3420</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="12">
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S17" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T17" s="2">
-        <v>44936</v>
+      <c r="R17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S17" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T17" s="3">
+        <v>45026</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="18" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="M18" s="4">
+        <v>470</v>
+      </c>
+      <c r="N18" s="4">
+        <v>333</v>
+      </c>
+      <c r="O18" s="12">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0.84760000000000002</v>
-      </c>
-      <c r="M18" s="3">
-        <v>470</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="12">
-        <v>0.51063829787234039</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S18" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T18" s="2">
-        <v>44936</v>
+      <c r="R18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S18" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T18" s="3">
+        <v>45026</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="225" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    <row r="19" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>80</v>
+      <c r="K19" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="4">
         <v>360</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="P19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S19" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T19" s="2">
-        <v>44936</v>
+      <c r="Q19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S19" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T19" s="3">
+        <v>45026</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="210" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D20" s="4" t="s">
+    <row r="20" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1.0210999999999999</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2950</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1.0210999999999999</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3950</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="12">
-        <v>0.46835443037974683</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S20" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T20" s="2">
-        <v>44936</v>
+      <c r="R20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S20" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T20" s="3">
+        <v>45026</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M21" s="4">
+        <v>50</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="M21" s="3">
-        <v>50</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T21" s="2">
-        <v>44936</v>
+      <c r="R21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S21" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T21" s="3">
+        <v>45026</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C22" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D22" s="4" t="s">
+    <row r="22" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>80</v>
+      <c r="K22" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L22" s="11">
         <v>1</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="4">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T22" s="2">
-        <v>44936</v>
+      <c r="Q22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S22" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T22" s="3">
+        <v>45026</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C23" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>80</v>
+      <c r="K23" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L23" s="11">
         <v>1</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="4">
         <v>18</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="12">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="P23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S23" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T23" s="2">
-        <v>44936</v>
+      <c r="Q23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S23" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T23" s="3">
+        <v>45026</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D24" s="4" t="s">
+    <row r="24" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>80</v>
+      <c r="J24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L24" s="11">
         <v>1</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="4">
         <v>1</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="12">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S24" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T24" s="2">
-        <v>44936</v>
+      <c r="Q24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S24" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T24" s="3">
+        <v>45026</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C25" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D25" s="4" t="s">
+    <row r="25" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>80</v>
+      <c r="K25" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L25" s="11">
         <v>1</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
         <v>8</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="P25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S25" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T25" s="2">
-        <v>44936</v>
+      <c r="Q25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S25" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T25" s="3">
+        <v>45026</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D26" s="4" t="s">
+    <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>80</v>
+      <c r="K26" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L26" s="11">
         <v>0.8</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="4">
         <v>7</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="12">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="P26" s="3" t="s">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S26" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T26" s="2">
-        <v>44936</v>
+      <c r="Q26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S26" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T26" s="3">
+        <v>45026</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C27" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    <row r="27" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>80</v>
+      <c r="J27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L27" s="11">
         <v>1</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="4">
         <v>4</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="P27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S27" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T27" s="2">
-        <v>44936</v>
+      <c r="Q27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S27" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T27" s="3">
+        <v>45026</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    <row r="28" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>80</v>
+      <c r="K28" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L28" s="11">
         <v>1</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="4">
         <v>60</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S28" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T28" s="2">
-        <v>44936</v>
+      <c r="Q28" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S28" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T28" s="3">
+        <v>45026</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="195" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="29" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>80</v>
+      <c r="K29" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L29" s="11">
         <v>1</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="4">
         <v>4</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="P29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S29" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T29" s="2">
-        <v>44936</v>
+      <c r="Q29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S29" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T29" s="3">
+        <v>45026</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="A30" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="M30" s="4">
+        <v>26</v>
+      </c>
+      <c r="N30" s="4">
+        <v>10</v>
+      </c>
+      <c r="O30" s="12">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0.78080000000000005</v>
-      </c>
-      <c r="M30" s="3">
-        <v>26</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="12">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T30" s="2">
-        <v>44936</v>
+      <c r="R30" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S30" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T30" s="3">
+        <v>45026</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B31" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C31" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D31" s="4" t="s">
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>80</v>
+      <c r="K31" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L31" s="11">
         <v>1</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="4">
         <v>4</v>
       </c>
-      <c r="N31" s="3"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="P31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S31" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T31" s="2">
-        <v>44936</v>
+      <c r="Q31" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S31" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T31" s="3">
+        <v>45026</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D32" s="4" t="s">
+    <row r="32" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>80</v>
+      <c r="K32" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L32" s="11">
         <v>1</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="4">
         <v>228</v>
       </c>
-      <c r="N32" s="3"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="P32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S32" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T32" s="2">
-        <v>44936</v>
+      <c r="Q32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S32" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T32" s="3">
+        <v>45026</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C33" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D33" s="4" t="s">
+    <row r="33" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>80</v>
+      <c r="K33" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L33" s="11">
         <v>1</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="4">
         <v>7</v>
       </c>
-      <c r="N33" s="3"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="12">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="P33" s="3" t="s">
+        <v>1.1429</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S33" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T33" s="2">
-        <v>44936</v>
+      <c r="Q33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S33" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T33" s="3">
+        <v>45026</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B34" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C34" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D34" s="4" t="s">
+    <row r="34" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>80</v>
+      <c r="K34" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L34" s="11">
         <v>1</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="4">
         <v>6</v>
       </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="4"/>
       <c r="O34" s="12">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S34" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T34" s="2">
-        <v>44936</v>
+      <c r="Q34" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S34" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T34" s="3">
+        <v>45026</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B35" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C35" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D35" s="4" t="s">
+    <row r="35" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0.9355</v>
+      </c>
+      <c r="M35" s="4">
+        <v>9900</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="12">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0.9355</v>
-      </c>
-      <c r="M35" s="3">
-        <v>9900</v>
-      </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="12">
-        <v>0.93151515151515152</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S35" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T35" s="2">
-        <v>44936</v>
+      <c r="R35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="S35" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T35" s="3">
+        <v>45026</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44926</v>
-      </c>
-      <c r="D36" s="4" t="s">
+    <row r="36" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="K36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="10">
         <v>0.9355</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="4">
         <v>4950</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="12">
         <v>1</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="R36" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S36" s="2">
-        <v>44936</v>
-      </c>
-      <c r="T36" s="2">
-        <v>44936</v>
+      <c r="S36" s="3">
+        <v>45026</v>
+      </c>
+      <c r="T36" s="3">
+        <v>45026</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>239</v>
@@ -3394,7 +3380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
